--- a/output/父母_全部记录.xlsx
+++ b/output/父母_全部记录.xlsx
@@ -15859,7 +15859,7 @@
         <v>1.2283</v>
       </c>
       <c r="J166">
-        <v>108.72</v>
+        <v>-108.72</v>
       </c>
       <c r="K166">
         <v>133.54</v>
@@ -15921,7 +15921,7 @@
         <v>1.2283</v>
       </c>
       <c r="J167">
-        <v>173.69</v>
+        <v>-173.69</v>
       </c>
       <c r="K167">
         <v>213.34</v>
@@ -16107,7 +16107,7 @@
         <v>2.678</v>
       </c>
       <c r="J170">
-        <v>233.16</v>
+        <v>-233.16</v>
       </c>
       <c r="K170">
         <v>621.28</v>
@@ -23857,7 +23857,7 @@
         <v>0.8562</v>
       </c>
       <c r="J295">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="K295">
         <v>171.24</v>
@@ -24725,7 +24725,7 @@
         <v>1.646</v>
       </c>
       <c r="J309">
-        <v>1782.67</v>
+        <v>-1782.67</v>
       </c>
       <c r="K309">
         <v>2890.26</v>
@@ -40225,7 +40225,7 @@
         <v>0.9401</v>
       </c>
       <c r="J559">
-        <v>492.57</v>
+        <v>-492.57</v>
       </c>
       <c r="K559">
         <v>461.68</v>
@@ -43821,7 +43821,7 @@
         <v>1.0832</v>
       </c>
       <c r="J617">
-        <v>140577.44</v>
+        <v>-140577.44</v>
       </c>
       <c r="K617">
         <v>152273.48</v>
@@ -43945,7 +43945,7 @@
         <v>1.0326</v>
       </c>
       <c r="J619">
-        <v>78123.55</v>
+        <v>-78123.55</v>
       </c>
       <c r="K619">
         <v>80670.38</v>
@@ -44007,7 +44007,7 @@
         <v>1.0326</v>
       </c>
       <c r="J620">
-        <v>14826.58</v>
+        <v>-14826.58</v>
       </c>
       <c r="K620">
         <v>15309.93</v>
@@ -44193,7 +44193,7 @@
         <v>0.9340000000000001</v>
       </c>
       <c r="J623">
-        <v>275.96</v>
+        <v>-275.96</v>
       </c>
       <c r="K623">
         <v>257.75</v>
@@ -44255,7 +44255,7 @@
         <v>1.2562</v>
       </c>
       <c r="J624">
-        <v>286.91</v>
+        <v>-286.91</v>
       </c>
       <c r="K624">
         <v>360.42</v>
@@ -44317,7 +44317,7 @@
         <v>1.005</v>
       </c>
       <c r="J625">
-        <v>359.36</v>
+        <v>-359.36</v>
       </c>
       <c r="K625">
         <v>360.8</v>
@@ -44379,7 +44379,7 @@
         <v>1.171</v>
       </c>
       <c r="J626">
-        <v>411.14</v>
+        <v>-411.14</v>
       </c>
       <c r="K626">
         <v>477.83</v>
@@ -46301,7 +46301,7 @@
         <v>1.2631</v>
       </c>
       <c r="J657">
-        <v>1723.04</v>
+        <v>-1723.04</v>
       </c>
       <c r="K657">
         <v>2176.37</v>
@@ -46363,7 +46363,7 @@
         <v>1.0082</v>
       </c>
       <c r="J658">
-        <v>2155.47</v>
+        <v>-2155.47</v>
       </c>
       <c r="K658">
         <v>2173.14</v>
@@ -46425,7 +46425,7 @@
         <v>1.174</v>
       </c>
       <c r="J659">
-        <v>2465.75</v>
+        <v>-2465.75</v>
       </c>
       <c r="K659">
         <v>2894.79</v>
@@ -46983,7 +46983,7 @@
         <v>0.9182</v>
       </c>
       <c r="J668">
-        <v>214.89</v>
+        <v>-214.89</v>
       </c>
       <c r="K668">
         <v>196.82</v>
@@ -47045,7 +47045,7 @@
         <v>0.9182</v>
       </c>
       <c r="J669">
-        <v>227.52</v>
+        <v>-227.52</v>
       </c>
       <c r="K669">
         <v>208.39</v>
@@ -48781,7 +48781,7 @@
         <v>0.8827</v>
       </c>
       <c r="J697">
-        <v>212.74</v>
+        <v>-212.74</v>
       </c>
       <c r="K697">
         <v>187.7</v>
@@ -48843,7 +48843,7 @@
         <v>0.8827</v>
       </c>
       <c r="J698">
-        <v>212.74</v>
+        <v>-212.74</v>
       </c>
       <c r="K698">
         <v>187.7</v>
@@ -50579,7 +50579,7 @@
         <v>1.743</v>
       </c>
       <c r="J726">
-        <v>2834.28</v>
+        <v>-2834.28</v>
       </c>
       <c r="K726">
         <v>4915.45</v>
@@ -50641,7 +50641,7 @@
         <v>1.176</v>
       </c>
       <c r="J727">
-        <v>16913.91</v>
+        <v>-16913.91</v>
       </c>
       <c r="K727">
         <v>19791.31</v>
@@ -50703,7 +50703,7 @@
         <v>1.278</v>
       </c>
       <c r="J728">
-        <v>14584.91</v>
+        <v>-14584.91</v>
       </c>
       <c r="K728">
         <v>18546.31</v>
@@ -50765,7 +50765,7 @@
         <v>1.33</v>
       </c>
       <c r="J729">
-        <v>18807.32</v>
+        <v>-18807.32</v>
       </c>
       <c r="K729">
         <v>24888.67</v>
@@ -50827,7 +50827,7 @@
         <v>1.0308</v>
       </c>
       <c r="J730">
-        <v>19295.83</v>
+        <v>-19295.83</v>
       </c>
       <c r="K730">
         <v>19890.14</v>
@@ -50889,7 +50889,7 @@
         <v>1.161</v>
       </c>
       <c r="J731">
-        <v>32443.72</v>
+        <v>-32443.72</v>
       </c>
       <c r="K731">
         <v>37629.49</v>
@@ -50951,7 +50951,7 @@
         <v>1.09</v>
       </c>
       <c r="J732">
-        <v>35338.25</v>
+        <v>-35338.25</v>
       </c>
       <c r="K732">
         <v>38480.17</v>
@@ -51013,7 +51013,7 @@
         <v>1.083</v>
       </c>
       <c r="J733">
-        <v>32764.51</v>
+        <v>-32764.51</v>
       </c>
       <c r="K733">
         <v>35448.48</v>
@@ -51075,7 +51075,7 @@
         <v>1.74</v>
       </c>
       <c r="J734">
-        <v>2833.66</v>
+        <v>-2833.66</v>
       </c>
       <c r="K734">
         <v>4905.92</v>
@@ -51137,7 +51137,7 @@
         <v>1.175</v>
       </c>
       <c r="J735">
-        <v>16910.18</v>
+        <v>-16910.18</v>
       </c>
       <c r="K735">
         <v>19770.11</v>
@@ -51199,7 +51199,7 @@
         <v>1.277</v>
       </c>
       <c r="J736">
-        <v>14581.69</v>
+        <v>-14581.69</v>
       </c>
       <c r="K736">
         <v>18527.72</v>
@@ -51261,7 +51261,7 @@
         <v>1.329</v>
       </c>
       <c r="J737">
-        <v>18803.17</v>
+        <v>-18803.17</v>
       </c>
       <c r="K737">
         <v>24864.46</v>
@@ -51323,7 +51323,7 @@
         <v>1.0309</v>
       </c>
       <c r="J738">
-        <v>19291.57</v>
+        <v>-19291.57</v>
       </c>
       <c r="K738">
         <v>19887.68</v>
@@ -51385,7 +51385,7 @@
         <v>1.161</v>
       </c>
       <c r="J739">
-        <v>32436.57</v>
+        <v>-32436.57</v>
       </c>
       <c r="K739">
         <v>37621.2</v>
@@ -51447,7 +51447,7 @@
         <v>1.09</v>
       </c>
       <c r="J740">
-        <v>35330.46</v>
+        <v>-35330.46</v>
       </c>
       <c r="K740">
         <v>38471.69</v>
@@ -51509,7 +51509,7 @@
         <v>1.083</v>
       </c>
       <c r="J741">
-        <v>32757.29</v>
+        <v>-32757.29</v>
       </c>
       <c r="K741">
         <v>35440.67</v>
@@ -52067,7 +52067,7 @@
         <v>1.717</v>
       </c>
       <c r="J750">
-        <v>3096.18</v>
+        <v>-3096.18</v>
       </c>
       <c r="K750">
         <v>5289.56</v>
@@ -52129,7 +52129,7 @@
         <v>1.175</v>
       </c>
       <c r="J751">
-        <v>18476.79</v>
+        <v>-18476.79</v>
       </c>
       <c r="K751">
         <v>21601.68</v>
@@ -52191,7 +52191,7 @@
         <v>1.277</v>
       </c>
       <c r="J752">
-        <v>15932.58</v>
+        <v>-15932.58</v>
       </c>
       <c r="K752">
         <v>20244.17</v>
@@ -52253,7 +52253,7 @@
         <v>1.33</v>
       </c>
       <c r="J753">
-        <v>20545.16</v>
+        <v>-20545.16</v>
       </c>
       <c r="K753">
         <v>27188.43</v>
@@ -52315,7 +52315,7 @@
         <v>1.0311</v>
       </c>
       <c r="J754">
-        <v>21078.81</v>
+        <v>-21078.81</v>
       </c>
       <c r="K754">
         <v>21734.36</v>
@@ -52377,7 +52377,7 @@
         <v>1.162</v>
       </c>
       <c r="J755">
-        <v>35441.6</v>
+        <v>-35441.6</v>
       </c>
       <c r="K755">
         <v>41141.96</v>
@@ -52439,7 +52439,7 @@
         <v>1.091</v>
       </c>
       <c r="J756">
-        <v>38603.59</v>
+        <v>-38603.59</v>
       </c>
       <c r="K756">
         <v>42074.4</v>
@@ -52501,7 +52501,7 @@
         <v>1.084</v>
       </c>
       <c r="J757">
-        <v>35792.03</v>
+        <v>-35792.03</v>
       </c>
       <c r="K757">
         <v>38759.76</v>
@@ -53183,7 +53183,7 @@
         <v>1.728</v>
       </c>
       <c r="J768">
-        <v>2834.46</v>
+        <v>-2834.46</v>
       </c>
       <c r="K768">
         <v>4873.46</v>
@@ -53245,7 +53245,7 @@
         <v>1.175</v>
       </c>
       <c r="J769">
-        <v>16914.99</v>
+        <v>-16914.99</v>
       </c>
       <c r="K769">
         <v>19775.74</v>
@@ -53307,7 +53307,7 @@
         <v>1.278</v>
       </c>
       <c r="J770">
-        <v>14585.84</v>
+        <v>-14585.84</v>
       </c>
       <c r="K770">
         <v>18547.5</v>
@@ -53369,7 +53369,7 @@
         <v>1.33</v>
       </c>
       <c r="J771">
-        <v>18808.52</v>
+        <v>-18808.52</v>
       </c>
       <c r="K771">
         <v>24890.25</v>
@@ -53431,7 +53431,7 @@
         <v>1.0313</v>
       </c>
       <c r="J772">
-        <v>19297.06</v>
+        <v>-19297.06</v>
       </c>
       <c r="K772">
         <v>19900.27</v>
@@ -53493,7 +53493,7 @@
         <v>1.162</v>
       </c>
       <c r="J773">
-        <v>32445.79</v>
+        <v>-32445.79</v>
       </c>
       <c r="K773">
         <v>37664.31</v>
@@ -53555,7 +53555,7 @@
         <v>1.091</v>
       </c>
       <c r="J774">
-        <v>35340.5</v>
+        <v>-35340.5</v>
       </c>
       <c r="K774">
         <v>38517.94</v>
@@ -53617,7 +53617,7 @@
         <v>1.084</v>
       </c>
       <c r="J775">
-        <v>32766.61</v>
+        <v>-32766.61</v>
       </c>
       <c r="K775">
         <v>35483.5</v>
@@ -53679,7 +53679,7 @@
         <v>1.2471</v>
       </c>
       <c r="J776">
-        <v>329.12</v>
+        <v>-329.12</v>
       </c>
       <c r="K776">
         <v>409.21</v>
@@ -53741,7 +53741,7 @@
         <v>2.2144</v>
       </c>
       <c r="J777">
-        <v>299.45</v>
+        <v>-299.45</v>
       </c>
       <c r="K777">
         <v>661.4400000000001</v>
@@ -56407,7 +56407,7 @@
         <v>1.2672</v>
       </c>
       <c r="J820">
-        <v>1146.1</v>
+        <v>-1146.1</v>
       </c>
       <c r="K820">
         <v>1452.34</v>
@@ -56469,7 +56469,7 @@
         <v>1.0118</v>
       </c>
       <c r="J821">
-        <v>1432.82</v>
+        <v>-1432.82</v>
       </c>
       <c r="K821">
         <v>1449.73</v>
@@ -56531,7 +56531,7 @@
         <v>1.178</v>
       </c>
       <c r="J822">
-        <v>1639.53</v>
+        <v>-1639.53</v>
       </c>
       <c r="K822">
         <v>1931.37</v>
@@ -57027,7 +57027,7 @@
         <v>2.1254</v>
       </c>
       <c r="J830">
-        <v>298.8</v>
+        <v>-298.8</v>
       </c>
       <c r="K830">
         <v>633.48</v>
@@ -57213,7 +57213,7 @@
         <v>0.8646</v>
       </c>
       <c r="J833">
-        <v>434.69</v>
+        <v>-434.69</v>
       </c>
       <c r="K833">
         <v>374.7</v>
@@ -58143,7 +58143,7 @@
         <v>2.0816</v>
       </c>
       <c r="J848">
-        <v>614.84</v>
+        <v>-614.84</v>
       </c>
       <c r="K848">
         <v>1276.65</v>
@@ -59321,7 +59321,7 @@
         <v>1.3007</v>
       </c>
       <c r="J867">
-        <v>366.89</v>
+        <v>-366.89</v>
       </c>
       <c r="K867">
         <v>476.73</v>
@@ -59817,7 +59817,7 @@
         <v>1.4364</v>
       </c>
       <c r="J875">
-        <v>333.04</v>
+        <v>-333.04</v>
       </c>
       <c r="K875">
         <v>475.99</v>
@@ -60437,7 +60437,7 @@
         <v>0.9164</v>
       </c>
       <c r="J885">
-        <v>562.52</v>
+        <v>-562.52</v>
       </c>
       <c r="K885">
         <v>513.9400000000001</v>
@@ -61367,7 +61367,7 @@
         <v>1.223</v>
       </c>
       <c r="J900">
-        <v>68234.14999999999</v>
+        <v>-68234.14999999999</v>
       </c>
       <c r="K900">
         <v>83450.37</v>
@@ -61429,7 +61429,7 @@
         <v>1.223</v>
       </c>
       <c r="J901">
-        <v>1134.49</v>
+        <v>-1134.49</v>
       </c>
       <c r="K901">
         <v>1387.48</v>
@@ -61491,7 +61491,7 @@
         <v>1.0927</v>
       </c>
       <c r="J902">
-        <v>185.71</v>
+        <v>-185.71</v>
       </c>
       <c r="K902">
         <v>202.93</v>
@@ -61553,7 +61553,7 @@
         <v>1.0927</v>
       </c>
       <c r="J903">
-        <v>325.74</v>
+        <v>-325.74</v>
       </c>
       <c r="K903">
         <v>355.94</v>
@@ -61615,7 +61615,7 @@
         <v>1.0927</v>
       </c>
       <c r="J904">
-        <v>554.21</v>
+        <v>-554.21</v>
       </c>
       <c r="K904">
         <v>605.59</v>
@@ -61677,7 +61677,7 @@
         <v>1.0927</v>
       </c>
       <c r="J905">
-        <v>75435.37</v>
+        <v>-75435.37</v>
       </c>
       <c r="K905">
         <v>82428.23</v>
@@ -65645,7 +65645,7 @@
         <v>0.9777</v>
       </c>
       <c r="J969">
-        <v>562.52</v>
+        <v>-562.52</v>
       </c>
       <c r="K969">
         <v>548.33</v>
@@ -68931,7 +68931,7 @@
         <v>2.3877</v>
       </c>
       <c r="J1022">
-        <v>205.58</v>
+        <v>-205.58</v>
       </c>
       <c r="K1022">
         <v>488.41</v>
@@ -70047,7 +70047,7 @@
         <v>1.3492</v>
       </c>
       <c r="J1040">
-        <v>61822.59</v>
+        <v>-61822.59</v>
       </c>
       <c r="K1040">
         <v>83411.03999999999</v>
@@ -70109,7 +70109,7 @@
         <v>1.3492</v>
       </c>
       <c r="J1041">
-        <v>355.34</v>
+        <v>-355.34</v>
       </c>
       <c r="K1041">
         <v>479.42</v>
@@ -70171,7 +70171,7 @@
         <v>1.2211</v>
       </c>
       <c r="J1042">
-        <v>403.55</v>
+        <v>-403.55</v>
       </c>
       <c r="K1042">
         <v>492.77</v>
@@ -70233,7 +70233,7 @@
         <v>1.073</v>
       </c>
       <c r="J1043">
-        <v>441.84</v>
+        <v>-441.84</v>
       </c>
       <c r="K1043">
         <v>474.09</v>
@@ -70295,7 +70295,7 @@
         <v>2.2515</v>
       </c>
       <c r="J1044">
-        <v>279.85</v>
+        <v>-279.85</v>
       </c>
       <c r="K1044">
         <v>630.08</v>
@@ -70357,7 +70357,7 @@
         <v>2.2514</v>
       </c>
       <c r="J1045">
-        <v>59.7</v>
+        <v>-59.7</v>
       </c>
       <c r="K1045">
         <v>134.41</v>
@@ -70419,7 +70419,7 @@
         <v>1.0972</v>
       </c>
       <c r="J1046">
-        <v>1407.16</v>
+        <v>-1407.16</v>
       </c>
       <c r="K1046">
         <v>1543.94</v>
@@ -70481,7 +70481,7 @@
         <v>1.0972</v>
       </c>
       <c r="J1047">
-        <v>591.02</v>
+        <v>-591.02</v>
       </c>
       <c r="K1047">
         <v>648.47</v>
@@ -70543,7 +70543,7 @@
         <v>1.569</v>
       </c>
       <c r="J1048">
-        <v>194.32</v>
+        <v>-194.32</v>
       </c>
       <c r="K1048">
         <v>304.89</v>
@@ -70605,7 +70605,7 @@
         <v>1.2769</v>
       </c>
       <c r="J1049">
-        <v>1173.51</v>
+        <v>-1173.51</v>
       </c>
       <c r="K1049">
         <v>1498.45</v>
@@ -70667,7 +70667,7 @@
         <v>1.0212</v>
       </c>
       <c r="J1050">
-        <v>436.76</v>
+        <v>-436.76</v>
       </c>
       <c r="K1050">
         <v>446.02</v>
@@ -70729,7 +70729,7 @@
         <v>1.0212</v>
       </c>
       <c r="J1051">
-        <v>275.99</v>
+        <v>-275.99</v>
       </c>
       <c r="K1051">
         <v>281.84</v>
@@ -70791,7 +70791,7 @@
         <v>1.0091</v>
       </c>
       <c r="J1052">
-        <v>442.89</v>
+        <v>-442.89</v>
       </c>
       <c r="K1052">
         <v>446.92</v>
@@ -70853,7 +70853,7 @@
         <v>1.0091</v>
       </c>
       <c r="J1053">
-        <v>299.26</v>
+        <v>-299.26</v>
       </c>
       <c r="K1053">
         <v>301.98</v>
@@ -70915,7 +70915,7 @@
         <v>1.0056</v>
       </c>
       <c r="J1054">
-        <v>17.82</v>
+        <v>-17.82</v>
       </c>
       <c r="K1054">
         <v>17.92</v>
@@ -71969,7 +71969,7 @@
         <v>1.577</v>
       </c>
       <c r="J1071">
-        <v>345.01</v>
+        <v>-345.01</v>
       </c>
       <c r="K1071">
         <v>542.99</v>
@@ -72713,7 +72713,7 @@
         <v>1.1149</v>
       </c>
       <c r="J1083">
-        <v>3.83</v>
+        <v>-3.83</v>
       </c>
       <c r="K1083">
         <v>4.26</v>
@@ -72775,7 +72775,7 @@
         <v>1.1137</v>
       </c>
       <c r="J1084">
-        <v>14.07</v>
+        <v>-14.07</v>
       </c>
       <c r="K1084">
         <v>15.64</v>
@@ -73271,7 +73271,7 @@
         <v>1.1574</v>
       </c>
       <c r="J1092">
-        <v>39.08</v>
+        <v>-39.08</v>
       </c>
       <c r="K1092">
         <v>45</v>
@@ -73333,7 +73333,7 @@
         <v>1.1574</v>
       </c>
       <c r="J1093">
-        <v>42.7</v>
+        <v>-42.7</v>
       </c>
       <c r="K1093">
         <v>49.17</v>
@@ -73395,7 +73395,7 @@
         <v>1.1599</v>
       </c>
       <c r="J1094">
-        <v>3.44</v>
+        <v>-3.44</v>
       </c>
       <c r="K1094">
         <v>3.98</v>
@@ -73457,7 +73457,7 @@
         <v>1.161</v>
       </c>
       <c r="J1095">
-        <v>12.67</v>
+        <v>-12.67</v>
       </c>
       <c r="K1095">
         <v>14.68</v>
@@ -73643,7 +73643,7 @@
         <v>1.1545</v>
       </c>
       <c r="J1098">
-        <v>491.66</v>
+        <v>-491.66</v>
       </c>
       <c r="K1098">
         <v>565.92</v>
@@ -73829,7 +73829,7 @@
         <v>1.1763</v>
       </c>
       <c r="J1101">
-        <v>35.17</v>
+        <v>-35.17</v>
       </c>
       <c r="K1101">
         <v>41.16</v>
@@ -73891,7 +73891,7 @@
         <v>1.1762</v>
       </c>
       <c r="J1102">
-        <v>38.43</v>
+        <v>-38.43</v>
       </c>
       <c r="K1102">
         <v>44.97</v>
@@ -73953,7 +73953,7 @@
         <v>1.1801</v>
       </c>
       <c r="J1103">
-        <v>3.72</v>
+        <v>-3.72</v>
       </c>
       <c r="K1103">
         <v>4.38</v>
@@ -74015,7 +74015,7 @@
         <v>1.1813</v>
       </c>
       <c r="J1104">
-        <v>13.68</v>
+        <v>-13.68</v>
       </c>
       <c r="K1104">
         <v>16.13</v>
@@ -74387,7 +74387,7 @@
         <v>2.5765</v>
       </c>
       <c r="J1110">
-        <v>45.62</v>
+        <v>-45.62</v>
       </c>
       <c r="K1110">
         <v>117.13</v>
@@ -74449,7 +74449,7 @@
         <v>1.263</v>
       </c>
       <c r="J1111">
-        <v>37.99</v>
+        <v>-37.99</v>
       </c>
       <c r="K1111">
         <v>47.74</v>
@@ -74511,7 +74511,7 @@
         <v>1.3517</v>
       </c>
       <c r="J1112">
-        <v>3.27</v>
+        <v>-3.27</v>
       </c>
       <c r="K1112">
         <v>4.41</v>
@@ -74573,7 +74573,7 @@
         <v>3.3237</v>
       </c>
       <c r="J1113">
-        <v>3.8</v>
+        <v>-3.8</v>
       </c>
       <c r="K1113">
         <v>12.56</v>
@@ -75007,7 +75007,7 @@
         <v>1.5603</v>
       </c>
       <c r="J1120">
-        <v>326.54</v>
+        <v>-326.54</v>
       </c>
       <c r="K1120">
         <v>509.5</v>
@@ -75069,7 +75069,7 @@
         <v>1.2772</v>
       </c>
       <c r="J1121">
-        <v>1954.58</v>
+        <v>-1954.58</v>
       </c>
       <c r="K1121">
         <v>2496.39</v>
@@ -75131,7 +75131,7 @@
         <v>1.0142</v>
       </c>
       <c r="J1122">
-        <v>1220.76</v>
+        <v>-1220.76</v>
       </c>
       <c r="K1122">
         <v>1238.09</v>
@@ -75193,7 +75193,7 @@
         <v>1.0263</v>
       </c>
       <c r="J1123">
-        <v>1212.76</v>
+        <v>-1212.76</v>
       </c>
       <c r="K1123">
         <v>1244.16</v>
@@ -75255,7 +75255,7 @@
         <v>1.0026</v>
       </c>
       <c r="J1124">
-        <v>3735.95</v>
+        <v>-3735.95</v>
       </c>
       <c r="K1124">
         <v>3744.16</v>
@@ -75317,7 +75317,7 @@
         <v>1.0301</v>
       </c>
       <c r="J1125">
-        <v>2420.7</v>
+        <v>-2420.7</v>
       </c>
       <c r="K1125">
         <v>2493.56</v>
@@ -75379,7 +75379,7 @@
         <v>1.0076</v>
       </c>
       <c r="J1126">
-        <v>9930</v>
+        <v>-9930</v>
       </c>
       <c r="K1126">
         <v>10001.46</v>
@@ -75503,7 +75503,7 @@
         <v>1.0002</v>
       </c>
       <c r="J1128">
-        <v>3250.62</v>
+        <v>-3250.62</v>
       </c>
       <c r="K1128">
         <v>3251.12</v>
@@ -75565,7 +75565,7 @@
         <v>1.2708</v>
       </c>
       <c r="J1129">
-        <v>516.71</v>
+        <v>-516.71</v>
       </c>
       <c r="K1129">
         <v>654.67</v>
@@ -75627,7 +75627,7 @@
         <v>2.6167</v>
       </c>
       <c r="J1130">
-        <v>41.06</v>
+        <v>-41.06</v>
       </c>
       <c r="K1130">
         <v>106.94</v>
@@ -75689,7 +75689,7 @@
         <v>2.6165</v>
       </c>
       <c r="J1131">
-        <v>48.58</v>
+        <v>-48.58</v>
       </c>
       <c r="K1131">
         <v>126.73</v>
@@ -75751,7 +75751,7 @@
         <v>1.3506</v>
       </c>
       <c r="J1132">
-        <v>33.43</v>
+        <v>-33.43</v>
       </c>
       <c r="K1132">
         <v>44.92</v>
@@ -75813,7 +75813,7 @@
         <v>1.3506</v>
       </c>
       <c r="J1133">
-        <v>41.5</v>
+        <v>-41.5</v>
       </c>
       <c r="K1133">
         <v>55.77</v>
@@ -75875,7 +75875,7 @@
         <v>1.4531</v>
       </c>
       <c r="J1134">
-        <v>3.84</v>
+        <v>-3.84</v>
       </c>
       <c r="K1134">
         <v>5.57</v>
@@ -75937,7 +75937,7 @@
         <v>1.4523</v>
       </c>
       <c r="J1135">
-        <v>16.05</v>
+        <v>-16.05</v>
       </c>
       <c r="K1135">
         <v>23.27</v>
@@ -75999,7 +75999,7 @@
         <v>3.3596</v>
       </c>
       <c r="J1136">
-        <v>3.42</v>
+        <v>-3.42</v>
       </c>
       <c r="K1136">
         <v>11.44</v>
@@ -76061,7 +76061,7 @@
         <v>3.3587</v>
       </c>
       <c r="J1137">
-        <v>11.18</v>
+        <v>-11.18</v>
       </c>
       <c r="K1137">
         <v>37.36</v>
@@ -77053,7 +77053,7 @@
         <v>1.2856</v>
       </c>
       <c r="J1153">
-        <v>472.3</v>
+        <v>-472.3</v>
       </c>
       <c r="K1153">
         <v>605.37</v>
@@ -77115,7 +77115,7 @@
         <v>1.254</v>
       </c>
       <c r="J1154">
-        <v>562.52</v>
+        <v>-562.52</v>
       </c>
       <c r="K1154">
         <v>703.28</v>
@@ -77177,7 +77177,7 @@
         <v>2.5756</v>
       </c>
       <c r="J1155">
-        <v>44.34</v>
+        <v>-44.34</v>
       </c>
       <c r="K1155">
         <v>113.63</v>
@@ -77239,7 +77239,7 @@
         <v>2.5755</v>
       </c>
       <c r="J1156">
-        <v>52.46</v>
+        <v>-52.46</v>
       </c>
       <c r="K1156">
         <v>134.55</v>
@@ -77301,7 +77301,7 @@
         <v>1.3236</v>
       </c>
       <c r="J1157">
-        <v>39.22</v>
+        <v>-39.22</v>
       </c>
       <c r="K1157">
         <v>51.65</v>
@@ -77363,7 +77363,7 @@
         <v>1.3237</v>
       </c>
       <c r="J1158">
-        <v>48.69</v>
+        <v>-48.69</v>
       </c>
       <c r="K1158">
         <v>64.13</v>
@@ -77425,7 +77425,7 @@
         <v>1.3697</v>
       </c>
       <c r="J1159">
-        <v>4.03</v>
+        <v>-4.03</v>
       </c>
       <c r="K1159">
         <v>5.51</v>
@@ -77487,7 +77487,7 @@
         <v>1.3697</v>
       </c>
       <c r="J1160">
-        <v>16.85</v>
+        <v>-16.85</v>
       </c>
       <c r="K1160">
         <v>23.03</v>
@@ -77549,7 +77549,7 @@
         <v>1.786</v>
       </c>
       <c r="J1161">
-        <v>354.1</v>
+        <v>-354.1</v>
       </c>
       <c r="K1161">
         <v>631.16</v>
@@ -77611,7 +77611,7 @@
         <v>3.4</v>
       </c>
       <c r="J1162">
-        <v>3.7</v>
+        <v>-3.7</v>
       </c>
       <c r="K1162">
         <v>12.51</v>
@@ -77673,7 +77673,7 @@
         <v>3.4002</v>
       </c>
       <c r="J1163">
-        <v>12.07</v>
+        <v>-12.07</v>
       </c>
       <c r="K1163">
         <v>40.84</v>
@@ -77859,7 +77859,7 @@
         <v>1.2264</v>
       </c>
       <c r="J1166">
-        <v>1184.57</v>
+        <v>-1184.57</v>
       </c>
       <c r="K1166">
         <v>1452.76</v>
@@ -77921,7 +77921,7 @@
         <v>1.081</v>
       </c>
       <c r="J1167">
-        <v>449.76</v>
+        <v>-449.76</v>
       </c>
       <c r="K1167">
         <v>486.19</v>
@@ -77983,7 +77983,7 @@
         <v>2.3451</v>
       </c>
       <c r="J1168">
-        <v>210.17</v>
+        <v>-210.17</v>
       </c>
       <c r="K1168">
         <v>492.87</v>
@@ -78045,7 +78045,7 @@
         <v>1.1546</v>
       </c>
       <c r="J1169">
-        <v>883.55</v>
+        <v>-883.55</v>
       </c>
       <c r="K1169">
         <v>1020.15</v>
@@ -78107,7 +78107,7 @@
         <v>1.5683</v>
       </c>
       <c r="J1170">
-        <v>313.12</v>
+        <v>-313.12</v>
       </c>
       <c r="K1170">
         <v>491.07</v>
@@ -78169,7 +78169,7 @@
         <v>1.05</v>
       </c>
       <c r="J1171">
-        <v>490.81</v>
+        <v>-490.81</v>
       </c>
       <c r="K1171">
         <v>515.35</v>
@@ -78231,7 +78231,7 @@
         <v>1.6</v>
       </c>
       <c r="J1172">
-        <v>304.75</v>
+        <v>-304.75</v>
       </c>
       <c r="K1172">
         <v>487.6</v>
@@ -78417,7 +78417,7 @@
         <v>2.4821</v>
       </c>
       <c r="J1175">
-        <v>39.02</v>
+        <v>-39.02</v>
       </c>
       <c r="K1175">
         <v>96.37</v>
@@ -78479,7 +78479,7 @@
         <v>2.4819</v>
       </c>
       <c r="J1176">
-        <v>46.17</v>
+        <v>-46.17</v>
       </c>
       <c r="K1176">
         <v>114.02</v>
@@ -78541,7 +78541,7 @@
         <v>1.2957</v>
       </c>
       <c r="J1177">
-        <v>41.19</v>
+        <v>-41.19</v>
       </c>
       <c r="K1177">
         <v>53.1</v>
@@ -78603,7 +78603,7 @@
         <v>1.2957</v>
       </c>
       <c r="J1178">
-        <v>51.13</v>
+        <v>-51.13</v>
       </c>
       <c r="K1178">
         <v>65.92</v>
@@ -78665,7 +78665,7 @@
         <v>1.3772</v>
       </c>
       <c r="J1179">
-        <v>4.03</v>
+        <v>-4.03</v>
       </c>
       <c r="K1179">
         <v>5.54</v>
@@ -78727,7 +78727,7 @@
         <v>1.3774</v>
       </c>
       <c r="J1180">
-        <v>16.85</v>
+        <v>-16.85</v>
       </c>
       <c r="K1180">
         <v>23.16</v>
@@ -78789,7 +78789,7 @@
         <v>3.306</v>
       </c>
       <c r="J1181">
-        <v>10.62</v>
+        <v>-10.62</v>
       </c>
       <c r="K1181">
         <v>34.94</v>
@@ -80215,7 +80215,7 @@
         <v>2.5722</v>
       </c>
       <c r="J1204">
-        <v>48.64</v>
+        <v>-48.64</v>
       </c>
       <c r="K1204">
         <v>124.48</v>
@@ -80277,7 +80277,7 @@
         <v>2.5723</v>
       </c>
       <c r="J1205">
-        <v>57.56</v>
+        <v>-57.56</v>
       </c>
       <c r="K1205">
         <v>147.32</v>
@@ -80339,7 +80339,7 @@
         <v>1.3785</v>
       </c>
       <c r="J1206">
-        <v>41.19</v>
+        <v>-41.19</v>
       </c>
       <c r="K1206">
         <v>56.5</v>
@@ -80401,7 +80401,7 @@
         <v>1.3784</v>
       </c>
       <c r="J1207">
-        <v>51.13</v>
+        <v>-51.13</v>
       </c>
       <c r="K1207">
         <v>70.13</v>
@@ -80463,7 +80463,7 @@
         <v>1.3877</v>
       </c>
       <c r="J1208">
-        <v>4.23</v>
+        <v>-4.23</v>
       </c>
       <c r="K1208">
         <v>5.86</v>
@@ -80525,7 +80525,7 @@
         <v>1.3884</v>
       </c>
       <c r="J1209">
-        <v>17.69</v>
+        <v>-17.69</v>
       </c>
       <c r="K1209">
         <v>24.52</v>
@@ -80587,7 +80587,7 @@
         <v>3.4729</v>
       </c>
       <c r="J1210">
-        <v>4.61</v>
+        <v>-4.61</v>
       </c>
       <c r="K1210">
         <v>15.93</v>
@@ -80649,7 +80649,7 @@
         <v>3.4728</v>
       </c>
       <c r="J1211">
-        <v>13.24</v>
+        <v>-13.24</v>
       </c>
       <c r="K1211">
         <v>45.75</v>
@@ -81145,7 +81145,7 @@
         <v>2.5282</v>
       </c>
       <c r="J1219">
-        <v>47.5</v>
+        <v>-47.5</v>
       </c>
       <c r="K1219">
         <v>119.49</v>
@@ -81207,7 +81207,7 @@
         <v>2.5281</v>
       </c>
       <c r="J1220">
-        <v>56.2</v>
+        <v>-56.2</v>
       </c>
       <c r="K1220">
         <v>141.37</v>
@@ -81269,7 +81269,7 @@
         <v>1.3446</v>
       </c>
       <c r="J1221">
-        <v>43.24</v>
+        <v>-43.24</v>
       </c>
       <c r="K1221">
         <v>57.85</v>
@@ -81331,7 +81331,7 @@
         <v>1.3448</v>
       </c>
       <c r="J1222">
-        <v>53.69</v>
+        <v>-53.69</v>
       </c>
       <c r="K1222">
         <v>71.84</v>
@@ -81393,7 +81393,7 @@
         <v>1.3537</v>
       </c>
       <c r="J1223">
-        <v>3.93</v>
+        <v>-3.93</v>
       </c>
       <c r="K1223">
         <v>5.31</v>
@@ -81455,7 +81455,7 @@
         <v>1.3542</v>
       </c>
       <c r="J1224">
-        <v>16.43</v>
+        <v>-16.43</v>
       </c>
       <c r="K1224">
         <v>22.21</v>
@@ -81517,7 +81517,7 @@
         <v>3.4</v>
       </c>
       <c r="J1225">
-        <v>4.5</v>
+        <v>-4.5</v>
       </c>
       <c r="K1225">
         <v>15.22</v>
@@ -81579,7 +81579,7 @@
         <v>3.4006</v>
       </c>
       <c r="J1226">
-        <v>12.93</v>
+        <v>-12.93</v>
       </c>
       <c r="K1226">
         <v>43.76</v>
@@ -81641,7 +81641,7 @@
         <v>1.3139</v>
       </c>
       <c r="J1227">
-        <v>472.3</v>
+        <v>-472.3</v>
       </c>
       <c r="K1227">
         <v>618.6900000000001</v>
@@ -83067,7 +83067,7 @@
         <v>2.6082</v>
       </c>
       <c r="J1250">
-        <v>47.5</v>
+        <v>-47.5</v>
       </c>
       <c r="K1250">
         <v>123.27</v>
@@ -83129,7 +83129,7 @@
         <v>2.6082</v>
       </c>
       <c r="J1251">
-        <v>56.2</v>
+        <v>-56.2</v>
       </c>
       <c r="K1251">
         <v>145.85</v>
@@ -83191,7 +83191,7 @@
         <v>1.3563</v>
       </c>
       <c r="J1252">
-        <v>40.16</v>
+        <v>-40.16</v>
       </c>
       <c r="K1252">
         <v>54.2</v>
@@ -83253,7 +83253,7 @@
         <v>1.3563</v>
       </c>
       <c r="J1253">
-        <v>49.85</v>
+        <v>-49.85</v>
       </c>
       <c r="K1253">
         <v>67.27</v>
@@ -83315,7 +83315,7 @@
         <v>1.4275</v>
       </c>
       <c r="J1254">
-        <v>3.93</v>
+        <v>-3.93</v>
       </c>
       <c r="K1254">
         <v>5.6</v>
@@ -83377,7 +83377,7 @@
         <v>1.4273</v>
       </c>
       <c r="J1255">
-        <v>16.43</v>
+        <v>-16.43</v>
       </c>
       <c r="K1255">
         <v>23.4</v>
@@ -83439,7 +83439,7 @@
         <v>3.5444</v>
       </c>
       <c r="J1256">
-        <v>4.5</v>
+        <v>-4.5</v>
       </c>
       <c r="K1256">
         <v>15.87</v>
@@ -83501,7 +83501,7 @@
         <v>3.5448</v>
       </c>
       <c r="J1257">
-        <v>12.94</v>
+        <v>-12.94</v>
       </c>
       <c r="K1257">
         <v>45.64</v>
